--- a/Definitions/a_Definitions_Util.xlsx
+++ b/Definitions/a_Definitions_Util.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Util Methods</t>
   </si>
@@ -37,6 +37,15 @@
 }
 return builder.toString();
 }</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>Reading xml using Apache POI</t>
+  </si>
+  <si>
+    <t>http://howtodoinjava.com/apache-commons/readingwriting-excel-files-in-java-poi-tutorial/</t>
   </si>
 </sst>
 </file>
@@ -162,26 +171,27 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -477,51 +487,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A4"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="55.140625" customWidth="1"/>
-    <col min="2" max="2" width="128.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="128.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:2" ht="30">
-      <c r="A3" s="5" t="s">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" ht="30">
+      <c r="A10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="135">
-      <c r="A4" s="6"/>
-      <c r="B4" s="4" t="s">
+    <row r="11" spans="1:2" ht="135">
+      <c r="A11" s="6"/>
+      <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Utils!A2" display="Up"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Definitions/a_Definitions_Util.xlsx
+++ b/Definitions/a_Definitions_Util.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Util Methods</t>
   </si>
@@ -46,6 +46,43 @@
   </si>
   <si>
     <t>http://howtodoinjava.com/apache-commons/readingwriting-excel-files-in-java-poi-tutorial/</t>
+  </si>
+  <si>
+    <t>private static final String LOWER_CASE_ALPHABETS = "abcdefghijklmnopqrstuvwxyz";
+ private static final String SPECIAL_CHARS      = "!@#$%^&amp;*()-+.{},?~";
+ private static final String UPPER_CASE_ALPHABETS = "ABCDEFGHIJKLMNOPQRSTUVWXYZ";</t>
+  </si>
+  <si>
+    <t>private int getRandomNumber(int maxLimit) {
+  int value = (int) (Math.random() * maxLimit);
+  return value;
+ }</t>
+  </si>
+  <si>
+    <t>public void test() {
+  char[] samplePwdCharArray = samplePwd.toCharArray();
+  StringBuffer pwd = new StringBuffer();
+  for (char samplePwdChar : samplePwdCharArray) {
+   int asciiValue = samplePwdChar;
+   System.out.println(asciiValue);
+   if (asciiValue &gt;= 97 &amp;&amp; asciiValue &lt;= 122) {
+    pwd.append(LOWER_CASE_ALPHABETS.charAt(getRandomNumber(LOWER_CASE_ALPHABETS.length())));
+   } else if (asciiValue &gt;= 65 &amp;&amp; asciiValue &lt;= 90) {
+    pwd.append(UPPER_CASE_ALPHABETS.charAt(getRandomNumber(UPPER_CASE_ALPHABETS.length())));
+   } else if (asciiValue &gt;= 48 &amp;&amp; asciiValue &lt;= 57) {
+    pwd.append(getRandomNumber(10));
+   } else {
+    pwd.append(SPECIAL_CHARS.charAt(getRandomNumber(SPECIAL_CHARS.length())));
+   }
+  }
+  System.out.println("sample pwd: " + samplePwd);
+  System.out.println("pwd: " + pwd);
+ }</t>
+  </si>
+  <si>
+    <t>Generate random alpha numeric character based on given alpha numeric character
+Ex: Sample password: "Pwd@12s"
+output password: Uzx}36v</t>
   </si>
 </sst>
 </file>
@@ -179,6 +216,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -186,12 +224,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -487,16 +524,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.140625" customWidth="1"/>
+    <col min="1" max="1" width="55.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="128.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -506,16 +543,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="5"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -535,13 +572,13 @@
       <c r="B8"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="5"/>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -549,16 +586,37 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="135">
-      <c r="A11" s="6"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="12" spans="1:2" ht="45">
+      <c r="A12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="60">
+      <c r="A13" s="7"/>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="300">
+      <c r="A14" s="7"/>
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A12:A14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Utils!A2" display="Up"/>

--- a/Definitions/a_Definitions_Util.xlsx
+++ b/Definitions/a_Definitions_Util.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Utils" sheetId="1" r:id="rId1"/>
+    <sheet name="Topics" sheetId="3" r:id="rId1"/>
+    <sheet name="RandomNumbers" sheetId="1" r:id="rId2"/>
+    <sheet name="Date" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Util Methods</t>
   </si>
@@ -83,6 +85,35 @@
     <t>Generate random alpha numeric character based on given alpha numeric character
 Ex: Sample password: "Pwd@12s"
 output password: Uzx}36v</t>
+  </si>
+  <si>
+    <t>Random Numbers</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Calendar cal = Calendar.getInstance();
+cal.setTime(dateInstance);
+cal.add(Calendar.DATE, -30);
+Date dateBefore30Days = cal.getTime();</t>
+  </si>
+  <si>
+    <t>DateFormat dateFormat = new SimpleDateFormat("yyyy/MM/dd HH:mm:ss");
+Calendar cal = Calendar.getInstance();
+//Add one day to current date.
+cal.add(Calendar.DATE, 1);
+System.out.println(dateFormat.format(cal.getTime()));
+//Substract one day to current date.
+cal = Calendar.getInstance();
+cal.add(Calendar.DATE, -1);
+System.out.println(dateFormat.format(cal.getTime()));</t>
+  </si>
+  <si>
+    <t>Subtract x days from current date</t>
+  </si>
+  <si>
+    <t>Topics</t>
   </si>
 </sst>
 </file>
@@ -208,7 +239,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -228,6 +259,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -524,20 +561,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A2:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12:A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="128.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="37.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" location="Date!A1" display="Date"/>
+    <hyperlink ref="A2" location="RandomNumbers!A1" display="Random Numbers"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="55.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="128.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
+      <c r="A1" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -621,6 +693,56 @@
   <hyperlinks>
     <hyperlink ref="B1" location="Utils!A2" display="Up"/>
     <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="44.875" customWidth="1"/>
+    <col min="2" max="2" width="115.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="60">
+      <c r="A3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="165">
+      <c r="A4" s="8"/>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="Date!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Definitions/a_Definitions_Util.xlsx
+++ b/Definitions/a_Definitions_Util.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Util Methods</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Topics</t>
+  </si>
+  <si>
+    <t>Definitions</t>
   </si>
 </sst>
 </file>
@@ -153,7 +156,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,8 +175,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0066FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -231,6 +240,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -239,7 +274,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -263,8 +298,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -561,10 +605,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -572,12 +617,20 @@
     <col min="1" max="1" width="37.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="1" spans="1:2">
+      <c r="A1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -586,6 +639,7 @@
   <hyperlinks>
     <hyperlink ref="A3" location="Date!A1" display="Date"/>
     <hyperlink ref="A2" location="RandomNumbers!A1" display="Random Numbers"/>
+    <hyperlink ref="B1" location="Topics!A2" display="Up"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -595,19 +649,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="55.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="128.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="105.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -615,10 +669,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="12"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
@@ -691,7 +745,7 @@
     <mergeCell ref="A12:A14"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B1" location="Utils!A2" display="Up"/>
+    <hyperlink ref="B1" location="RandomNumbers!A2" display="Up"/>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
   </hyperlinks>
@@ -703,9 +757,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -715,12 +769,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="12"/>
     </row>
     <row r="3" spans="1:2" ht="60">
       <c r="A3" s="8" t="s">
@@ -737,8 +797,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Date!A2" display="Up"/>

--- a/Definitions/a_Definitions_Util.xlsx
+++ b/Definitions/a_Definitions_Util.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="3" r:id="rId1"/>
     <sheet name="RandomNumbers" sheetId="1" r:id="rId2"/>
     <sheet name="Date" sheetId="2" r:id="rId3"/>
+    <sheet name="POI-XML" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Util Methods</t>
   </si>
@@ -117,6 +118,12 @@
   </si>
   <si>
     <t>Definitions</t>
+  </si>
+  <si>
+    <t>Apache POI for XML</t>
+  </si>
+  <si>
+    <t>Material Links</t>
   </si>
 </sst>
 </file>
@@ -283,6 +290,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -295,20 +308,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -605,9 +612,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -618,7 +625,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -633,6 +640,11 @@
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -640,6 +652,7 @@
     <hyperlink ref="A3" location="Date!A1" display="Date"/>
     <hyperlink ref="A2" location="RandomNumbers!A1" display="Random Numbers"/>
     <hyperlink ref="B1" location="Topics!A2" display="Up"/>
+    <hyperlink ref="A4" location="'POI-XML'!A1" display="Apache POI for XML"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -649,9 +662,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -661,7 +674,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -669,18 +682,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="12"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B2" s="11"/>
     </row>
     <row r="4" spans="1:2">
       <c r="B4"/>
@@ -698,13 +703,13 @@
       <c r="B8"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -712,13 +717,13 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="135">
-      <c r="A11" s="7"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -726,13 +731,13 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="60">
-      <c r="A13" s="7"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="300">
-      <c r="A14" s="7"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
@@ -746,7 +751,6 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="RandomNumbers!A2" display="Up"/>
-    <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -759,7 +763,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -769,7 +773,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -777,13 +781,13 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="11"/>
     </row>
     <row r="3" spans="1:2" ht="60">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -791,7 +795,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="165">
-      <c r="A4" s="8"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
@@ -807,4 +811,54 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="54.125" customWidth="1"/>
+    <col min="2" max="2" width="109.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="11"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="'POI-XML'!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A4" display="Topics"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Definitions/a_Definitions_Util.xlsx
+++ b/Definitions/a_Definitions_Util.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="3" r:id="rId1"/>
     <sheet name="RandomNumbers" sheetId="1" r:id="rId2"/>
     <sheet name="Date" sheetId="2" r:id="rId3"/>
     <sheet name="POI-XML" sheetId="4" r:id="rId4"/>
+    <sheet name="Collections" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Util Methods</t>
   </si>
@@ -124,6 +125,22 @@
   </si>
   <si>
     <t>Material Links</t>
+  </si>
+  <si>
+    <t>Collections</t>
+  </si>
+  <si>
+    <t>Split a Java List Into a List of Sublists</t>
+  </si>
+  <si>
+    <t>public static &lt;T&gt; List&lt;List&lt;T&gt;&gt; split(List&lt;T&gt; list, final int length) {
+     List&lt;List&lt;T&gt;&gt; parts = new ArrayList&lt;List&lt;T&gt;&gt;();
+     final int size = list.size();
+     for (int i = 0; i &lt; size; i += length) {
+        parts.add(new ArrayList&lt;T&gt;(      list.subList(i, Math.min(size, i + length)))         );
+     }
+     return parts;
+ }</t>
   </si>
 </sst>
 </file>
@@ -612,16 +629,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.125" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -645,6 +662,11 @@
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -653,6 +675,7 @@
     <hyperlink ref="A2" location="RandomNumbers!A1" display="Random Numbers"/>
     <hyperlink ref="B1" location="Topics!A2" display="Up"/>
     <hyperlink ref="A4" location="'POI-XML'!A1" display="Apache POI for XML"/>
+    <hyperlink ref="A5" location="Collections!A1" display="Collections"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -669,8 +692,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="105.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="55.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="105.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -768,8 +791,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="44.875" customWidth="1"/>
-    <col min="2" max="2" width="115.875" customWidth="1"/>
+    <col min="1" max="1" width="44.85546875" customWidth="1"/>
+    <col min="2" max="2" width="115.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -819,13 +842,13 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="54.125" customWidth="1"/>
-    <col min="2" max="2" width="109.875" customWidth="1"/>
+    <col min="1" max="1" width="54.140625" customWidth="1"/>
+    <col min="2" max="2" width="109.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -861,4 +884,44 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="62.5703125" customWidth="1"/>
+    <col min="2" max="2" width="122.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="120">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Topics!A5" display="Topics"/>
+    <hyperlink ref="B1" location="Collections!A2" display="Up"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>